--- a/docs/unit1/02_head/Excel files/head calc.xlsx
+++ b/docs/unit1/02_head/Excel files/head calc.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10817"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vmware-host\Shared Folders\Documents\Courses\CE 547\in-class tasks\01. head\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/njones/PycharmProjects/ce547/docs/unit1/02_head/Excel files/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B288DE-C1DE-E34A-8C40-8955E200A4FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="19965" windowHeight="11280"/>
+    <workbookView xWindow="24360" yWindow="3140" windowWidth="29460" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,19 +63,19 @@
     <t>Fill in the missing values:</t>
   </si>
   <si>
-    <t>Brigham Young University - CE En 547</t>
-  </si>
-  <si>
     <t>Part 2 - Flow Net Calculations</t>
   </si>
   <si>
     <t>Part 1 - Capillary Rise</t>
+  </si>
+  <si>
+    <t>Brigham Young University - CE 547</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -149,17 +150,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -191,7 +192,13 @@
     <xdr:ext cx="194454" cy="283457"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -235,15 +242,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>619125</xdr:colOff>
+          <xdr:colOff>622300</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>314325</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -251,6 +258,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1047"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -272,14 +282,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -309,7 +319,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -336,9 +352,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -376,9 +392,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -413,7 +429,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -448,7 +464,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -621,45 +637,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="7.5" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
@@ -673,7 +689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
@@ -681,7 +697,7 @@
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
@@ -689,7 +705,7 @@
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -697,7 +713,7 @@
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
@@ -705,17 +721,17 @@
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>1</v>
       </c>
@@ -729,7 +745,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>5</v>
       </c>
@@ -737,7 +753,7 @@
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>6</v>
       </c>
@@ -745,7 +761,7 @@
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>8</v>
       </c>
@@ -766,15 +782,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
+                <xdr:colOff>622300</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>314325</xdr:colOff>
+                <xdr:colOff>317500</xdr:colOff>
                 <xdr:row>19</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:rowOff>165100</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -789,24 +805,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
